--- a/doc/SPI_Register_B0_20210531.xlsx
+++ b/doc/SPI_Register_B0_20210531.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24302"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GLS presentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\회사\ADRF5740\References\gZeroMaster\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CB0747B-67B1-49FA-AD10-1192CA66349F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB7631A-5EAE-44D9-B7FB-537C965ACAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,17 +17,6 @@
     <sheet name="RegisterMap_B0_탑핀순서" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -1761,11 +1750,6 @@
 Default value 1001:150 uA</t>
   </si>
   <si>
-    <t>VCO oscillation frequency control 
-(0000000001: 0V, 0000000010: 0.1V, ..., 1000000000: 1V)
-0000000001: min (0V/57.7GHz)--&gt; 1000000000: max (1V/62.4GHz)</t>
-  </si>
-  <si>
     <t>Control the demodulator's reference stage current
 0000:80 uA----&gt; 1111:200 uA
 Default value 1001:150 uA</t>
@@ -1855,17 +1839,23 @@
   </si>
   <si>
     <t> </t>
+  </si>
+  <si>
+    <t>VCO oscillation frequency control 
+(00 0000 0001: 0V, 0000000010: 0.1V, ..., 10 0000 0000: 1V)
+0000000001: min (0V/57.7GHz)--&gt; 1000000000: max (1V/62.4GHz)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1873,7 +1863,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1882,7 +1872,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Cambria"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="major"/>
@@ -1891,7 +1881,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1900,7 +1890,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1909,7 +1899,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1917,7 +1907,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1925,7 +1915,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1933,7 +1923,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1941,7 +1931,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1950,7 +1940,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1959,7 +1949,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1967,7 +1957,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1976,7 +1966,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1984,7 +1974,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1993,7 +1983,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -2002,7 +1992,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -2010,14 +2000,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -2026,7 +2016,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -2034,14 +2024,14 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -2049,7 +2039,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -2057,14 +2047,14 @@
     <font>
       <sz val="11"/>
       <color theme="4"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF4472C4"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -2916,6 +2906,24 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2932,15 +2940,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2961,59 +2960,50 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="강조색1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="강조색2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="강조색3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="강조색4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="강조색5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="강조색6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="경고문" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="계산" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="나쁨" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="메모" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="보통" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="설명 텍스트" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="셀 확인" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="연결된 셀" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="요약" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="입력" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="제목" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="제목 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="제목 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="제목 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="제목 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="좋음" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="출력" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2 2" xfId="42" xr:uid="{E8456DF1-7FC5-42E4-BFA2-C39DF6172BC6}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3035,7 +3025,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3361,7 +3351,7 @@
       <selection activeCell="Z21" sqref="Z21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.625" style="1" customWidth="1"/>
     <col min="2" max="4" width="14.625" style="1" customWidth="1"/>
@@ -3383,8 +3373,8 @@
     <col min="33" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:32" s="2" customFormat="1" ht="35.450000000000003" customHeight="1">
+    <row r="1" spans="2:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:32" s="2" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -3462,7 +3452,7 @@
       </c>
       <c r="AF2" s="34"/>
     </row>
-    <row r="3" spans="2:32" ht="16.5" customHeight="1">
+    <row r="3" spans="2:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
@@ -3530,7 +3520,7 @@
       <c r="AE3" s="6"/>
       <c r="AF3" s="7"/>
     </row>
-    <row r="4" spans="2:32">
+    <row r="4" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>17</v>
       </c>
@@ -3598,7 +3588,7 @@
       <c r="AE4" s="6"/>
       <c r="AF4" s="7"/>
     </row>
-    <row r="5" spans="2:32">
+    <row r="5" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>24</v>
       </c>
@@ -3666,7 +3656,7 @@
       <c r="AE5" s="6"/>
       <c r="AF5" s="7"/>
     </row>
-    <row r="6" spans="2:32">
+    <row r="6" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>31</v>
       </c>
@@ -3734,7 +3724,7 @@
       <c r="AE6" s="6"/>
       <c r="AF6" s="7"/>
     </row>
-    <row r="7" spans="2:32">
+    <row r="7" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>38</v>
       </c>
@@ -3802,7 +3792,7 @@
       <c r="AE7" s="6"/>
       <c r="AF7" s="7"/>
     </row>
-    <row r="8" spans="2:32">
+    <row r="8" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>45</v>
       </c>
@@ -3870,7 +3860,7 @@
       <c r="AE8" s="6"/>
       <c r="AF8" s="7"/>
     </row>
-    <row r="9" spans="2:32">
+    <row r="9" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>52</v>
       </c>
@@ -3938,7 +3928,7 @@
       <c r="AE9" s="6"/>
       <c r="AF9" s="7"/>
     </row>
-    <row r="10" spans="2:32">
+    <row r="10" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>59</v>
       </c>
@@ -4006,7 +3996,7 @@
       <c r="AE10" s="6"/>
       <c r="AF10" s="7"/>
     </row>
-    <row r="11" spans="2:32">
+    <row r="11" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>66</v>
       </c>
@@ -4076,7 +4066,7 @@
       <c r="AE11" s="6"/>
       <c r="AF11" s="7"/>
     </row>
-    <row r="12" spans="2:32">
+    <row r="12" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
         <v>71</v>
       </c>
@@ -4146,7 +4136,7 @@
       <c r="AE12" s="6"/>
       <c r="AF12" s="7"/>
     </row>
-    <row r="13" spans="2:32">
+    <row r="13" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
         <v>76</v>
       </c>
@@ -4216,7 +4206,7 @@
       <c r="AE13" s="6"/>
       <c r="AF13" s="7"/>
     </row>
-    <row r="14" spans="2:32">
+    <row r="14" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
         <v>81</v>
       </c>
@@ -4286,7 +4276,7 @@
       <c r="AE14" s="6"/>
       <c r="AF14" s="7"/>
     </row>
-    <row r="15" spans="2:32">
+    <row r="15" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
         <v>86</v>
       </c>
@@ -4356,7 +4346,7 @@
       <c r="AE15" s="6"/>
       <c r="AF15" s="7"/>
     </row>
-    <row r="16" spans="2:32">
+    <row r="16" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
         <v>91</v>
       </c>
@@ -4426,7 +4416,7 @@
       <c r="AE16" s="6"/>
       <c r="AF16" s="7"/>
     </row>
-    <row r="17" spans="2:32">
+    <row r="17" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
         <v>96</v>
       </c>
@@ -4496,7 +4486,7 @@
       <c r="AE17" s="6"/>
       <c r="AF17" s="7"/>
     </row>
-    <row r="18" spans="2:32">
+    <row r="18" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
         <v>101</v>
       </c>
@@ -4564,7 +4554,7 @@
       <c r="AE18" s="6"/>
       <c r="AF18" s="7"/>
     </row>
-    <row r="19" spans="2:32">
+    <row r="19" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B19" s="5" t="s">
         <v>108</v>
       </c>
@@ -4632,7 +4622,7 @@
       <c r="AE19" s="6"/>
       <c r="AF19" s="7"/>
     </row>
-    <row r="20" spans="2:32">
+    <row r="20" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
         <v>115</v>
       </c>
@@ -4700,7 +4690,7 @@
       <c r="AE20" s="6"/>
       <c r="AF20" s="7"/>
     </row>
-    <row r="21" spans="2:32">
+    <row r="21" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
         <v>122</v>
       </c>
@@ -4768,7 +4758,7 @@
       <c r="AE21" s="6"/>
       <c r="AF21" s="7"/>
     </row>
-    <row r="22" spans="2:32">
+    <row r="22" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
         <v>129</v>
       </c>
@@ -4834,7 +4824,7 @@
       <c r="AE22" s="6"/>
       <c r="AF22" s="7"/>
     </row>
-    <row r="23" spans="2:32">
+    <row r="23" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B23" s="5" t="s">
         <v>138</v>
       </c>
@@ -4900,7 +4890,7 @@
       <c r="AE23" s="6"/>
       <c r="AF23" s="7"/>
     </row>
-    <row r="24" spans="2:32">
+    <row r="24" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B24" s="5" t="s">
         <v>147</v>
       </c>
@@ -4966,7 +4956,7 @@
       <c r="AE24" s="6"/>
       <c r="AF24" s="7"/>
     </row>
-    <row r="25" spans="2:32">
+    <row r="25" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B25" s="5" t="s">
         <v>156</v>
       </c>
@@ -5032,7 +5022,7 @@
       <c r="AE25" s="6"/>
       <c r="AF25" s="7"/>
     </row>
-    <row r="26" spans="2:32">
+    <row r="26" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B26" s="5" t="s">
         <v>165</v>
       </c>
@@ -5098,7 +5088,7 @@
       <c r="AE26" s="6"/>
       <c r="AF26" s="7"/>
     </row>
-    <row r="27" spans="2:32">
+    <row r="27" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B27" s="5" t="s">
         <v>174</v>
       </c>
@@ -5164,7 +5154,7 @@
       <c r="AE27" s="6"/>
       <c r="AF27" s="7"/>
     </row>
-    <row r="28" spans="2:32">
+    <row r="28" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B28" s="5" t="s">
         <v>183</v>
       </c>
@@ -5230,7 +5220,7 @@
       <c r="AE28" s="6"/>
       <c r="AF28" s="7"/>
     </row>
-    <row r="29" spans="2:32">
+    <row r="29" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B29" s="5" t="s">
         <v>192</v>
       </c>
@@ -5296,7 +5286,7 @@
       <c r="AE29" s="6"/>
       <c r="AF29" s="7"/>
     </row>
-    <row r="30" spans="2:32">
+    <row r="30" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B30" s="5" t="s">
         <v>201</v>
       </c>
@@ -5362,7 +5352,7 @@
       <c r="AE30" s="6"/>
       <c r="AF30" s="7"/>
     </row>
-    <row r="31" spans="2:32">
+    <row r="31" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B31" s="5" t="s">
         <v>210</v>
       </c>
@@ -5428,7 +5418,7 @@
       <c r="AE31" s="6"/>
       <c r="AF31" s="7"/>
     </row>
-    <row r="32" spans="2:32">
+    <row r="32" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B32" s="5" t="s">
         <v>219</v>
       </c>
@@ -5494,7 +5484,7 @@
       <c r="AE32" s="6"/>
       <c r="AF32" s="7"/>
     </row>
-    <row r="33" spans="2:32">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B33" s="5" t="s">
         <v>228</v>
       </c>
@@ -5560,7 +5550,7 @@
       <c r="AE33" s="8"/>
       <c r="AF33" s="7"/>
     </row>
-    <row r="34" spans="2:32">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B34" s="5" t="s">
         <v>237</v>
       </c>
@@ -5626,7 +5616,7 @@
       <c r="AE34" s="8"/>
       <c r="AF34" s="7"/>
     </row>
-    <row r="35" spans="2:32">
+    <row r="35" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B35" s="5" t="s">
         <v>246</v>
       </c>
@@ -5692,7 +5682,7 @@
       <c r="AE35" s="8"/>
       <c r="AF35" s="7"/>
     </row>
-    <row r="36" spans="2:32">
+    <row r="36" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B36" s="5" t="s">
         <v>255</v>
       </c>
@@ -5758,7 +5748,7 @@
       <c r="AE36" s="8"/>
       <c r="AF36" s="7"/>
     </row>
-    <row r="37" spans="2:32">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B37" s="5" t="s">
         <v>264</v>
       </c>
@@ -5824,7 +5814,7 @@
       <c r="AE37" s="8"/>
       <c r="AF37" s="7"/>
     </row>
-    <row r="38" spans="2:32">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B38" s="5" t="s">
         <v>273</v>
       </c>
@@ -5890,7 +5880,7 @@
       <c r="AE38" s="8"/>
       <c r="AF38" s="7"/>
     </row>
-    <row r="39" spans="2:32">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B39" s="5" t="s">
         <v>282</v>
       </c>
@@ -5956,7 +5946,7 @@
       <c r="AE39" s="8"/>
       <c r="AF39" s="7"/>
     </row>
-    <row r="40" spans="2:32">
+    <row r="40" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B40" s="5" t="s">
         <v>291</v>
       </c>
@@ -6022,7 +6012,7 @@
       <c r="AE40" s="8"/>
       <c r="AF40" s="7"/>
     </row>
-    <row r="41" spans="2:32">
+    <row r="41" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B41" s="5" t="s">
         <v>300</v>
       </c>
@@ -6088,7 +6078,7 @@
       <c r="AE41" s="8"/>
       <c r="AF41" s="7"/>
     </row>
-    <row r="42" spans="2:32">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B42" s="5" t="s">
         <v>309</v>
       </c>
@@ -6154,7 +6144,7 @@
       <c r="AE42" s="8"/>
       <c r="AF42" s="7"/>
     </row>
-    <row r="43" spans="2:32">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B43" s="5" t="s">
         <v>318</v>
       </c>
@@ -6220,7 +6210,7 @@
       <c r="AE43" s="8"/>
       <c r="AF43" s="7"/>
     </row>
-    <row r="44" spans="2:32">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B44" s="5" t="s">
         <v>327</v>
       </c>
@@ -6286,7 +6276,7 @@
       <c r="AE44" s="8"/>
       <c r="AF44" s="7"/>
     </row>
-    <row r="45" spans="2:32">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B45" s="5" t="s">
         <v>336</v>
       </c>
@@ -6352,7 +6342,7 @@
       <c r="AE45" s="8"/>
       <c r="AF45" s="7"/>
     </row>
-    <row r="46" spans="2:32">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B46" s="5" t="s">
         <v>345</v>
       </c>
@@ -6418,7 +6408,7 @@
       <c r="AE46" s="8"/>
       <c r="AF46" s="7"/>
     </row>
-    <row r="47" spans="2:32">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B47" s="5" t="s">
         <v>354</v>
       </c>
@@ -6484,7 +6474,7 @@
       <c r="AE47" s="8"/>
       <c r="AF47" s="7"/>
     </row>
-    <row r="48" spans="2:32">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B48" s="5" t="s">
         <v>363</v>
       </c>
@@ -6550,7 +6540,7 @@
       <c r="AE48" s="8"/>
       <c r="AF48" s="7"/>
     </row>
-    <row r="49" spans="2:32">
+    <row r="49" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B49" s="5" t="s">
         <v>372</v>
       </c>
@@ -6616,7 +6606,7 @@
       <c r="AE49" s="8"/>
       <c r="AF49" s="7"/>
     </row>
-    <row r="50" spans="2:32">
+    <row r="50" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B50" s="5" t="s">
         <v>381</v>
       </c>
@@ -6680,7 +6670,7 @@
       <c r="AE50" s="8"/>
       <c r="AF50" s="7"/>
     </row>
-    <row r="51" spans="2:32">
+    <row r="51" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B51" s="5" t="s">
         <v>391</v>
       </c>
@@ -6746,7 +6736,7 @@
       <c r="AE51" s="8"/>
       <c r="AF51" s="7"/>
     </row>
-    <row r="52" spans="2:32">
+    <row r="52" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B52" s="5" t="s">
         <v>400</v>
       </c>
@@ -6812,7 +6802,7 @@
       <c r="AE52" s="8"/>
       <c r="AF52" s="7"/>
     </row>
-    <row r="53" spans="2:32">
+    <row r="53" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B53" s="5" t="s">
         <v>409</v>
       </c>
@@ -6878,7 +6868,7 @@
       <c r="AE53" s="8"/>
       <c r="AF53" s="7"/>
     </row>
-    <row r="54" spans="2:32">
+    <row r="54" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B54" s="5" t="s">
         <v>418</v>
       </c>
@@ -6944,7 +6934,7 @@
       <c r="AE54" s="8"/>
       <c r="AF54" s="7"/>
     </row>
-    <row r="55" spans="2:32">
+    <row r="55" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B55" s="5" t="s">
         <v>427</v>
       </c>
@@ -7010,7 +7000,7 @@
       <c r="AE55" s="8"/>
       <c r="AF55" s="7"/>
     </row>
-    <row r="56" spans="2:32">
+    <row r="56" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B56" s="5" t="s">
         <v>436</v>
       </c>
@@ -7076,7 +7066,7 @@
       <c r="AE56" s="8"/>
       <c r="AF56" s="7"/>
     </row>
-    <row r="57" spans="2:32">
+    <row r="57" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B57" s="5" t="s">
         <v>445</v>
       </c>
@@ -7142,7 +7132,7 @@
       <c r="AE57" s="8"/>
       <c r="AF57" s="7"/>
     </row>
-    <row r="58" spans="2:32">
+    <row r="58" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B58" s="5" t="s">
         <v>454</v>
       </c>
@@ -7208,7 +7198,7 @@
       <c r="AE58" s="8"/>
       <c r="AF58" s="7"/>
     </row>
-    <row r="59" spans="2:32">
+    <row r="59" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B59" s="5" t="s">
         <v>463</v>
       </c>
@@ -7274,7 +7264,7 @@
       <c r="AE59" s="8"/>
       <c r="AF59" s="7"/>
     </row>
-    <row r="60" spans="2:32">
+    <row r="60" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B60" s="5" t="s">
         <v>471</v>
       </c>
@@ -7340,7 +7330,7 @@
       <c r="AE60" s="8"/>
       <c r="AF60" s="7"/>
     </row>
-    <row r="61" spans="2:32">
+    <row r="61" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B61" s="5" t="s">
         <v>479</v>
       </c>
@@ -7406,7 +7396,7 @@
       <c r="AE61" s="8"/>
       <c r="AF61" s="7"/>
     </row>
-    <row r="62" spans="2:32">
+    <row r="62" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B62" s="5" t="s">
         <v>487</v>
       </c>
@@ -7472,7 +7462,7 @@
       <c r="AE62" s="8"/>
       <c r="AF62" s="7"/>
     </row>
-    <row r="63" spans="2:32">
+    <row r="63" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B63" s="5" t="s">
         <v>495</v>
       </c>
@@ -7538,7 +7528,7 @@
       <c r="AE63" s="8"/>
       <c r="AF63" s="7"/>
     </row>
-    <row r="64" spans="2:32">
+    <row r="64" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B64" s="5" t="s">
         <v>503</v>
       </c>
@@ -7604,7 +7594,7 @@
       <c r="AE64" s="8"/>
       <c r="AF64" s="7"/>
     </row>
-    <row r="65" spans="2:32">
+    <row r="65" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B65" s="5" t="s">
         <v>511</v>
       </c>
@@ -7670,7 +7660,7 @@
       <c r="AE65" s="8"/>
       <c r="AF65" s="7"/>
     </row>
-    <row r="66" spans="2:32" ht="15.75" thickBot="1">
+    <row r="66" spans="2:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B66" s="9" t="s">
         <v>519</v>
       </c>
@@ -7751,13 +7741,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3418F53F-08E5-43AB-83E0-CF8F2F3EF9FE}">
-  <dimension ref="B1:P61"/>
+  <dimension ref="B1:P59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20:M23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.625" style="1" customWidth="1"/>
     <col min="2" max="4" width="14.625" style="1" customWidth="1"/>
@@ -7771,8 +7761,8 @@
     <col min="17" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:16" s="2" customFormat="1" ht="35.450000000000003" customHeight="1">
+    <row r="1" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:16" s="2" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="16" t="s">
         <v>528</v>
       </c>
@@ -7812,7 +7802,7 @@
       </c>
       <c r="P2" s="34"/>
     </row>
-    <row r="3" spans="2:16" ht="16.5" customHeight="1">
+    <row r="3" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>130</v>
       </c>
@@ -7852,7 +7842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:16">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>139</v>
       </c>
@@ -7881,7 +7871,7 @@
       <c r="L4" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="M4" s="41" t="s">
+      <c r="M4" s="35" t="s">
         <v>532</v>
       </c>
       <c r="N4" s="12" t="s">
@@ -7892,7 +7882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:16">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>148</v>
       </c>
@@ -7902,7 +7892,7 @@
       <c r="D5" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="52" t="s">
         <v>533</v>
       </c>
       <c r="F5" s="12" t="s">
@@ -7921,7 +7911,7 @@
       <c r="L5" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="M5" s="42"/>
+      <c r="M5" s="36"/>
       <c r="N5" s="12" t="s">
         <v>10</v>
       </c>
@@ -7930,7 +7920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:16">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>157</v>
       </c>
@@ -7940,7 +7930,7 @@
       <c r="D6" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="E6" s="39"/>
+      <c r="E6" s="45"/>
       <c r="F6" s="12" t="s">
         <v>10</v>
       </c>
@@ -7957,7 +7947,7 @@
       <c r="L6" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="M6" s="42"/>
+      <c r="M6" s="36"/>
       <c r="N6" s="12" t="s">
         <v>10</v>
       </c>
@@ -7966,7 +7956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:16">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>166</v>
       </c>
@@ -7976,7 +7966,7 @@
       <c r="D7" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="E7" s="40"/>
+      <c r="E7" s="46"/>
       <c r="F7" s="12" t="s">
         <v>10</v>
       </c>
@@ -7993,7 +7983,7 @@
       <c r="L7" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="M7" s="43"/>
+      <c r="M7" s="37"/>
       <c r="N7" s="12" t="s">
         <v>10</v>
       </c>
@@ -8002,16 +7992,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:16">
-      <c r="B8" s="44" t="s">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="47" t="s">
         <v>534</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="46"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="49"/>
       <c r="J8" s="5" t="s">
         <v>143</v>
       </c>
@@ -8021,7 +8011,7 @@
       <c r="L8" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="M8" s="41" t="s">
+      <c r="M8" s="35" t="s">
         <v>535</v>
       </c>
       <c r="N8" s="12" t="s">
@@ -8032,7 +8022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:16">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>464</v>
       </c>
@@ -8042,7 +8032,7 @@
       <c r="D9" s="8" t="s">
         <v>465</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="44" t="s">
         <v>536</v>
       </c>
       <c r="F9" s="12" t="s">
@@ -8061,7 +8051,7 @@
       <c r="L9" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="M9" s="42"/>
+      <c r="M9" s="36"/>
       <c r="N9" s="12" t="s">
         <v>10</v>
       </c>
@@ -8070,7 +8060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:16">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>472</v>
       </c>
@@ -8080,7 +8070,7 @@
       <c r="D10" s="8" t="s">
         <v>473</v>
       </c>
-      <c r="E10" s="39"/>
+      <c r="E10" s="45"/>
       <c r="F10" s="12" t="s">
         <v>10</v>
       </c>
@@ -8097,7 +8087,7 @@
       <c r="L10" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="M10" s="42"/>
+      <c r="M10" s="36"/>
       <c r="N10" s="12" t="s">
         <v>10</v>
       </c>
@@ -8106,7 +8096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:16">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>480</v>
       </c>
@@ -8116,7 +8106,7 @@
       <c r="D11" s="8" t="s">
         <v>481</v>
       </c>
-      <c r="E11" s="39"/>
+      <c r="E11" s="45"/>
       <c r="F11" s="12" t="s">
         <v>10</v>
       </c>
@@ -8133,7 +8123,7 @@
       <c r="L11" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="M11" s="43"/>
+      <c r="M11" s="37"/>
       <c r="N11" s="12" t="s">
         <v>10</v>
       </c>
@@ -8142,7 +8132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:16">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
         <v>488</v>
       </c>
@@ -8152,7 +8142,7 @@
       <c r="D12" s="8" t="s">
         <v>489</v>
       </c>
-      <c r="E12" s="39"/>
+      <c r="E12" s="45"/>
       <c r="F12" s="12" t="s">
         <v>10</v>
       </c>
@@ -8169,7 +8159,7 @@
       <c r="L12" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="M12" s="41" t="s">
+      <c r="M12" s="35" t="s">
         <v>537</v>
       </c>
       <c r="N12" s="12" t="s">
@@ -8180,7 +8170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:16">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
         <v>496</v>
       </c>
@@ -8190,7 +8180,7 @@
       <c r="D13" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="E13" s="39"/>
+      <c r="E13" s="45"/>
       <c r="F13" s="12" t="s">
         <v>10</v>
       </c>
@@ -8207,7 +8197,7 @@
       <c r="L13" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="M13" s="42"/>
+      <c r="M13" s="36"/>
       <c r="N13" s="12" t="s">
         <v>10</v>
       </c>
@@ -8216,7 +8206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:16">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
         <v>504</v>
       </c>
@@ -8226,7 +8216,7 @@
       <c r="D14" s="8" t="s">
         <v>505</v>
       </c>
-      <c r="E14" s="39"/>
+      <c r="E14" s="45"/>
       <c r="F14" s="12" t="s">
         <v>10</v>
       </c>
@@ -8243,7 +8233,7 @@
       <c r="L14" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="M14" s="42"/>
+      <c r="M14" s="36"/>
       <c r="N14" s="12" t="s">
         <v>10</v>
       </c>
@@ -8252,7 +8242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:16">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
         <v>512</v>
       </c>
@@ -8262,7 +8252,7 @@
       <c r="D15" s="8" t="s">
         <v>513</v>
       </c>
-      <c r="E15" s="39"/>
+      <c r="E15" s="45"/>
       <c r="F15" s="12" t="s">
         <v>10</v>
       </c>
@@ -8279,7 +8269,7 @@
       <c r="L15" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="M15" s="43"/>
+      <c r="M15" s="37"/>
       <c r="N15" s="12" t="s">
         <v>10</v>
       </c>
@@ -8288,7 +8278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:16">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
         <v>520</v>
       </c>
@@ -8298,7 +8288,7 @@
       <c r="D16" s="8" t="s">
         <v>521</v>
       </c>
-      <c r="E16" s="40"/>
+      <c r="E16" s="46"/>
       <c r="F16" s="8" t="s">
         <v>522</v>
       </c>
@@ -8315,7 +8305,7 @@
       <c r="L16" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="M16" s="41" t="s">
+      <c r="M16" s="35" t="s">
         <v>538</v>
       </c>
       <c r="N16" s="12" t="s">
@@ -8326,7 +8316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:16">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
         <v>392</v>
       </c>
@@ -8336,8 +8326,8 @@
       <c r="D17" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="E17" s="38" t="s">
-        <v>539</v>
+      <c r="E17" s="44" t="s">
+        <v>561</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>10</v>
@@ -8355,7 +8345,7 @@
       <c r="L17" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="M17" s="42"/>
+      <c r="M17" s="36"/>
       <c r="N17" s="12" t="s">
         <v>10</v>
       </c>
@@ -8364,7 +8354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:16">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
         <v>401</v>
       </c>
@@ -8374,7 +8364,7 @@
       <c r="D18" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="E18" s="39"/>
+      <c r="E18" s="45"/>
       <c r="F18" s="12" t="s">
         <v>10</v>
       </c>
@@ -8391,7 +8381,7 @@
       <c r="L18" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="M18" s="42"/>
+      <c r="M18" s="36"/>
       <c r="N18" s="12" t="s">
         <v>10</v>
       </c>
@@ -8400,7 +8390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:16">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B19" s="5" t="s">
         <v>410</v>
       </c>
@@ -8410,7 +8400,7 @@
       <c r="D19" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="E19" s="39"/>
+      <c r="E19" s="45"/>
       <c r="F19" s="12" t="s">
         <v>10</v>
       </c>
@@ -8427,7 +8417,7 @@
       <c r="L19" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="M19" s="43"/>
+      <c r="M19" s="37"/>
       <c r="N19" s="12" t="s">
         <v>10</v>
       </c>
@@ -8436,7 +8426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:16" ht="13.5">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
         <v>419</v>
       </c>
@@ -8446,7 +8436,7 @@
       <c r="D20" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="E20" s="39"/>
+      <c r="E20" s="45"/>
       <c r="F20" s="12" t="s">
         <v>10</v>
       </c>
@@ -8463,8 +8453,8 @@
       <c r="L20" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="M20" s="41" t="s">
-        <v>540</v>
+      <c r="M20" s="35" t="s">
+        <v>539</v>
       </c>
       <c r="N20" s="12" t="s">
         <v>10</v>
@@ -8474,7 +8464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:16">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
         <v>428</v>
       </c>
@@ -8484,7 +8474,7 @@
       <c r="D21" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="E21" s="39"/>
+      <c r="E21" s="45"/>
       <c r="F21" s="12" t="s">
         <v>10</v>
       </c>
@@ -8501,7 +8491,7 @@
       <c r="L21" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="M21" s="42"/>
+      <c r="M21" s="36"/>
       <c r="N21" s="12" t="s">
         <v>10</v>
       </c>
@@ -8510,7 +8500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:16">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
         <v>437</v>
       </c>
@@ -8520,7 +8510,7 @@
       <c r="D22" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="E22" s="39"/>
+      <c r="E22" s="45"/>
       <c r="F22" s="12" t="s">
         <v>10</v>
       </c>
@@ -8537,7 +8527,7 @@
       <c r="L22" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="M22" s="42"/>
+      <c r="M22" s="36"/>
       <c r="N22" s="12" t="s">
         <v>10</v>
       </c>
@@ -8546,7 +8536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:16">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B23" s="5" t="s">
         <v>446</v>
       </c>
@@ -8556,7 +8546,7 @@
       <c r="D23" s="8" t="s">
         <v>447</v>
       </c>
-      <c r="E23" s="39"/>
+      <c r="E23" s="45"/>
       <c r="F23" s="12" t="s">
         <v>10</v>
       </c>
@@ -8573,7 +8563,7 @@
       <c r="L23" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="M23" s="43"/>
+      <c r="M23" s="37"/>
       <c r="N23" s="12" t="s">
         <v>10</v>
       </c>
@@ -8582,7 +8572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:16" ht="13.5">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B24" s="5" t="s">
         <v>455</v>
       </c>
@@ -8592,7 +8582,7 @@
       <c r="D24" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="E24" s="39"/>
+      <c r="E24" s="45"/>
       <c r="F24" s="12" t="s">
         <v>10</v>
       </c>
@@ -8609,8 +8599,8 @@
       <c r="L24" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="M24" s="41" t="s">
-        <v>541</v>
+      <c r="M24" s="35" t="s">
+        <v>540</v>
       </c>
       <c r="N24" s="12" t="s">
         <v>10</v>
@@ -8620,7 +8610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:16">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B25" s="5" t="s">
         <v>319</v>
       </c>
@@ -8630,7 +8620,7 @@
       <c r="D25" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="E25" s="39"/>
+      <c r="E25" s="45"/>
       <c r="F25" s="12" t="s">
         <v>10</v>
       </c>
@@ -8647,7 +8637,7 @@
       <c r="L25" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="M25" s="42"/>
+      <c r="M25" s="36"/>
       <c r="N25" s="12" t="s">
         <v>10</v>
       </c>
@@ -8656,7 +8646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:16">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B26" s="5" t="s">
         <v>328</v>
       </c>
@@ -8666,7 +8656,7 @@
       <c r="D26" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="E26" s="39"/>
+      <c r="E26" s="45"/>
       <c r="F26" s="12" t="s">
         <v>10</v>
       </c>
@@ -8683,7 +8673,7 @@
       <c r="L26" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="M26" s="42"/>
+      <c r="M26" s="36"/>
       <c r="N26" s="12" t="s">
         <v>10</v>
       </c>
@@ -8692,7 +8682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:16">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B27" s="5" t="s">
         <v>337</v>
       </c>
@@ -8702,7 +8692,7 @@
       <c r="D27" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="E27" s="40"/>
+      <c r="E27" s="46"/>
       <c r="F27" s="12" t="s">
         <v>10</v>
       </c>
@@ -8719,7 +8709,7 @@
       <c r="L27" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="M27" s="43"/>
+      <c r="M27" s="37"/>
       <c r="N27" s="12" t="s">
         <v>10</v>
       </c>
@@ -8728,7 +8718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:16">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B28" s="5" t="s">
         <v>346</v>
       </c>
@@ -8739,7 +8729,7 @@
         <v>347</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F28" s="12" t="s">
         <v>10</v>
@@ -8757,8 +8747,8 @@
       <c r="L28" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="M28" s="41" t="s">
-        <v>543</v>
+      <c r="M28" s="35" t="s">
+        <v>542</v>
       </c>
       <c r="N28" s="12" t="s">
         <v>10</v>
@@ -8768,7 +8758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:16">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B29" s="5" t="s">
         <v>355</v>
       </c>
@@ -8778,8 +8768,8 @@
       <c r="D29" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="E29" s="47" t="s">
-        <v>544</v>
+      <c r="E29" s="50" t="s">
+        <v>543</v>
       </c>
       <c r="F29" s="12" t="s">
         <v>10</v>
@@ -8797,7 +8787,7 @@
       <c r="L29" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="M29" s="42"/>
+      <c r="M29" s="36"/>
       <c r="N29" s="12" t="s">
         <v>10</v>
       </c>
@@ -8806,7 +8796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:16">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B30" s="5" t="s">
         <v>364</v>
       </c>
@@ -8816,7 +8806,7 @@
       <c r="D30" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="E30" s="36"/>
+      <c r="E30" s="42"/>
       <c r="F30" s="12" t="s">
         <v>10</v>
       </c>
@@ -8833,7 +8823,7 @@
       <c r="L30" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="M30" s="42"/>
+      <c r="M30" s="36"/>
       <c r="N30" s="12" t="s">
         <v>10</v>
       </c>
@@ -8842,7 +8832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:16">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B31" s="5" t="s">
         <v>373</v>
       </c>
@@ -8852,7 +8842,7 @@
       <c r="D31" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="E31" s="36"/>
+      <c r="E31" s="42"/>
       <c r="F31" s="12" t="s">
         <v>10</v>
       </c>
@@ -8869,7 +8859,7 @@
       <c r="L31" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="M31" s="43"/>
+      <c r="M31" s="37"/>
       <c r="N31" s="12" t="s">
         <v>10</v>
       </c>
@@ -8878,7 +8868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:16">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B32" s="5" t="s">
         <v>382</v>
       </c>
@@ -8888,7 +8878,7 @@
       <c r="D32" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="E32" s="48"/>
+      <c r="E32" s="51"/>
       <c r="F32" s="12" t="s">
         <v>10</v>
       </c>
@@ -8905,8 +8895,8 @@
       <c r="L32" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="M32" s="41" t="s">
-        <v>545</v>
+      <c r="M32" s="35" t="s">
+        <v>544</v>
       </c>
       <c r="N32" s="12" t="s">
         <v>10</v>
@@ -8916,16 +8906,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:16">
-      <c r="B33" s="44" t="s">
-        <v>546</v>
-      </c>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="46"/>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B33" s="47" t="s">
+        <v>545</v>
+      </c>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="49"/>
       <c r="J33" s="5" t="s">
         <v>369</v>
       </c>
@@ -8935,7 +8925,7 @@
       <c r="L33" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="M33" s="42"/>
+      <c r="M33" s="36"/>
       <c r="N33" s="12" t="s">
         <v>10</v>
       </c>
@@ -8944,7 +8934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:16">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B34" s="5" t="s">
         <v>385</v>
       </c>
@@ -8955,7 +8945,7 @@
         <v>386</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F34" s="12" t="s">
         <v>10</v>
@@ -8973,7 +8963,7 @@
       <c r="L34" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="M34" s="42"/>
+      <c r="M34" s="36"/>
       <c r="N34" s="12" t="s">
         <v>10</v>
       </c>
@@ -8982,7 +8972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:16">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B35" s="5" t="s">
         <v>248</v>
       </c>
@@ -8993,7 +8983,7 @@
         <v>249</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F35" s="12" t="s">
         <v>10</v>
@@ -9011,7 +9001,7 @@
       <c r="L35" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="M35" s="43"/>
+      <c r="M35" s="37"/>
       <c r="N35" s="12" t="s">
         <v>10</v>
       </c>
@@ -9020,7 +9010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:16">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B36" s="5" t="s">
         <v>257</v>
       </c>
@@ -9031,7 +9021,7 @@
         <v>258</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F36" s="12" t="s">
         <v>10</v>
@@ -9049,8 +9039,8 @@
       <c r="L36" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="M36" s="41" t="s">
-        <v>550</v>
+      <c r="M36" s="35" t="s">
+        <v>549</v>
       </c>
       <c r="N36" s="12" t="s">
         <v>10</v>
@@ -9060,7 +9050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:16">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B37" s="5" t="s">
         <v>266</v>
       </c>
@@ -9071,7 +9061,7 @@
         <v>267</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F37" s="12" t="s">
         <v>10</v>
@@ -9089,7 +9079,7 @@
       <c r="L37" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="M37" s="42"/>
+      <c r="M37" s="36"/>
       <c r="N37" s="12" t="s">
         <v>10</v>
       </c>
@@ -9098,7 +9088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:16">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B38" s="5" t="s">
         <v>275</v>
       </c>
@@ -9109,7 +9099,7 @@
         <v>276</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F38" s="12" t="s">
         <v>10</v>
@@ -9127,7 +9117,7 @@
       <c r="L38" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="M38" s="42"/>
+      <c r="M38" s="36"/>
       <c r="N38" s="12" t="s">
         <v>10</v>
       </c>
@@ -9136,7 +9126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:16">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B39" s="5" t="s">
         <v>284</v>
       </c>
@@ -9146,8 +9136,8 @@
       <c r="D39" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="E39" s="38" t="s">
-        <v>553</v>
+      <c r="E39" s="44" t="s">
+        <v>552</v>
       </c>
       <c r="F39" s="12" t="s">
         <v>10</v>
@@ -9165,7 +9155,7 @@
       <c r="L39" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="M39" s="43"/>
+      <c r="M39" s="37"/>
       <c r="N39" s="12" t="s">
         <v>10</v>
       </c>
@@ -9174,7 +9164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:16">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B40" s="5" t="s">
         <v>293</v>
       </c>
@@ -9184,7 +9174,7 @@
       <c r="D40" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="E40" s="39"/>
+      <c r="E40" s="45"/>
       <c r="F40" s="12" t="s">
         <v>10</v>
       </c>
@@ -9201,8 +9191,8 @@
       <c r="L40" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="M40" s="41" t="s">
-        <v>554</v>
+      <c r="M40" s="35" t="s">
+        <v>553</v>
       </c>
       <c r="N40" s="12" t="s">
         <v>10</v>
@@ -9212,7 +9202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:16">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B41" s="5" t="s">
         <v>302</v>
       </c>
@@ -9222,7 +9212,7 @@
       <c r="D41" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="E41" s="39"/>
+      <c r="E41" s="45"/>
       <c r="F41" s="12" t="s">
         <v>10</v>
       </c>
@@ -9239,7 +9229,7 @@
       <c r="L41" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="M41" s="42"/>
+      <c r="M41" s="36"/>
       <c r="N41" s="12" t="s">
         <v>10</v>
       </c>
@@ -9248,7 +9238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:16">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B42" s="5" t="s">
         <v>311</v>
       </c>
@@ -9258,7 +9248,7 @@
       <c r="D42" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="E42" s="40"/>
+      <c r="E42" s="46"/>
       <c r="F42" s="12" t="s">
         <v>10</v>
       </c>
@@ -9275,7 +9265,7 @@
       <c r="L42" s="8" t="s">
         <v>452</v>
       </c>
-      <c r="M42" s="42"/>
+      <c r="M42" s="36"/>
       <c r="N42" s="12" t="s">
         <v>10</v>
       </c>
@@ -9284,7 +9274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:16">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B43" s="5" t="s">
         <v>176</v>
       </c>
@@ -9294,8 +9284,8 @@
       <c r="D43" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="E43" s="49" t="s">
-        <v>555</v>
+      <c r="E43" s="52" t="s">
+        <v>554</v>
       </c>
       <c r="F43" s="12" t="s">
         <v>10</v>
@@ -9313,7 +9303,7 @@
       <c r="L43" s="8" t="s">
         <v>461</v>
       </c>
-      <c r="M43" s="43"/>
+      <c r="M43" s="37"/>
       <c r="N43" s="12" t="s">
         <v>10</v>
       </c>
@@ -9322,7 +9312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:16">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B44" s="5" t="s">
         <v>185</v>
       </c>
@@ -9332,7 +9322,7 @@
       <c r="D44" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="E44" s="39"/>
+      <c r="E44" s="45"/>
       <c r="F44" s="12" t="s">
         <v>10</v>
       </c>
@@ -9349,8 +9339,8 @@
       <c r="L44" s="8" t="s">
         <v>469</v>
       </c>
-      <c r="M44" s="41" t="s">
-        <v>556</v>
+      <c r="M44" s="35" t="s">
+        <v>555</v>
       </c>
       <c r="N44" s="12" t="s">
         <v>10</v>
@@ -9360,7 +9350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:16">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B45" s="5" t="s">
         <v>194</v>
       </c>
@@ -9370,7 +9360,7 @@
       <c r="D45" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="E45" s="39"/>
+      <c r="E45" s="45"/>
       <c r="F45" s="12" t="s">
         <v>10</v>
       </c>
@@ -9387,7 +9377,7 @@
       <c r="L45" s="8" t="s">
         <v>477</v>
       </c>
-      <c r="M45" s="42"/>
+      <c r="M45" s="36"/>
       <c r="N45" s="12" t="s">
         <v>10</v>
       </c>
@@ -9396,7 +9386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:16">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B46" s="5" t="s">
         <v>203</v>
       </c>
@@ -9406,7 +9396,7 @@
       <c r="D46" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="E46" s="40"/>
+      <c r="E46" s="46"/>
       <c r="F46" s="12" t="s">
         <v>10</v>
       </c>
@@ -9423,7 +9413,7 @@
       <c r="L46" s="8" t="s">
         <v>485</v>
       </c>
-      <c r="M46" s="42"/>
+      <c r="M46" s="36"/>
       <c r="N46" s="12" t="s">
         <v>10</v>
       </c>
@@ -9432,7 +9422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:16">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B47" s="5" t="s">
         <v>212</v>
       </c>
@@ -9442,8 +9432,8 @@
       <c r="D47" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="E47" s="35" t="s">
-        <v>557</v>
+      <c r="E47" s="41" t="s">
+        <v>556</v>
       </c>
       <c r="F47" s="12" t="s">
         <v>10</v>
@@ -9461,7 +9451,7 @@
       <c r="L47" s="8" t="s">
         <v>493</v>
       </c>
-      <c r="M47" s="43"/>
+      <c r="M47" s="37"/>
       <c r="N47" s="12" t="s">
         <v>10</v>
       </c>
@@ -9470,7 +9460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:16">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B48" s="5" t="s">
         <v>221</v>
       </c>
@@ -9480,7 +9470,7 @@
       <c r="D48" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="E48" s="36"/>
+      <c r="E48" s="42"/>
       <c r="F48" s="12" t="s">
         <v>10</v>
       </c>
@@ -9497,8 +9487,8 @@
       <c r="L48" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="M48" s="41" t="s">
-        <v>558</v>
+      <c r="M48" s="35" t="s">
+        <v>557</v>
       </c>
       <c r="N48" s="12" t="s">
         <v>10</v>
@@ -9508,7 +9498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:16">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B49" s="5" t="s">
         <v>230</v>
       </c>
@@ -9518,7 +9508,7 @@
       <c r="D49" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="E49" s="36"/>
+      <c r="E49" s="42"/>
       <c r="F49" s="12" t="s">
         <v>10</v>
       </c>
@@ -9535,7 +9525,7 @@
       <c r="L49" s="8" t="s">
         <v>509</v>
       </c>
-      <c r="M49" s="42"/>
+      <c r="M49" s="36"/>
       <c r="N49" s="12" t="s">
         <v>10</v>
       </c>
@@ -9544,7 +9534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:16" ht="15.75" thickBot="1">
+    <row r="50" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B50" s="9" t="s">
         <v>239</v>
       </c>
@@ -9554,7 +9544,7 @@
       <c r="D50" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="E50" s="37"/>
+      <c r="E50" s="43"/>
       <c r="F50" s="15" t="s">
         <v>10</v>
       </c>
@@ -9571,7 +9561,7 @@
       <c r="L50" s="8" t="s">
         <v>517</v>
       </c>
-      <c r="M50" s="42"/>
+      <c r="M50" s="36"/>
       <c r="N50" s="12" t="s">
         <v>10</v>
       </c>
@@ -9580,7 +9570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:16" ht="13.5">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J51" s="5" t="s">
         <v>525</v>
       </c>
@@ -9590,7 +9580,7 @@
       <c r="L51" s="8" t="s">
         <v>526</v>
       </c>
-      <c r="M51" s="43"/>
+      <c r="M51" s="37"/>
       <c r="N51" s="8" t="s">
         <v>522</v>
       </c>
@@ -9599,7 +9589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:16" ht="13.5">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J52" s="5" t="s">
         <v>15</v>
       </c>
@@ -9609,20 +9599,20 @@
       <c r="L52" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M52" s="50" t="s">
+      <c r="M52" s="38" t="s">
+        <v>558</v>
+      </c>
+      <c r="N52" s="23" t="s">
         <v>559</v>
       </c>
-      <c r="N52" s="23" t="s">
+      <c r="O52" s="24" t="s">
         <v>560</v>
-      </c>
-      <c r="O52" s="24" t="s">
-        <v>561</v>
       </c>
       <c r="P52" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:16" ht="13.5">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J53" s="5" t="s">
         <v>22</v>
       </c>
@@ -9632,18 +9622,18 @@
       <c r="L53" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="M53" s="51"/>
+      <c r="M53" s="39"/>
       <c r="N53" s="25" t="s">
+        <v>559</v>
+      </c>
+      <c r="O53" s="26" t="s">
         <v>560</v>
-      </c>
-      <c r="O53" s="26" t="s">
-        <v>561</v>
       </c>
       <c r="P53" s="30">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:16" ht="13.5">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J54" s="5" t="s">
         <v>29</v>
       </c>
@@ -9653,18 +9643,18 @@
       <c r="L54" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="M54" s="51"/>
+      <c r="M54" s="39"/>
       <c r="N54" s="25" t="s">
+        <v>559</v>
+      </c>
+      <c r="O54" s="26" t="s">
         <v>560</v>
-      </c>
-      <c r="O54" s="26" t="s">
-        <v>561</v>
       </c>
       <c r="P54" s="30">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:16" ht="13.5">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J55" s="5" t="s">
         <v>36</v>
       </c>
@@ -9674,18 +9664,18 @@
       <c r="L55" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="M55" s="51"/>
+      <c r="M55" s="39"/>
       <c r="N55" s="25" t="s">
+        <v>559</v>
+      </c>
+      <c r="O55" s="26" t="s">
         <v>560</v>
-      </c>
-      <c r="O55" s="26" t="s">
-        <v>561</v>
       </c>
       <c r="P55" s="30">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:16" ht="13.5">
+    <row r="56" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J56" s="5" t="s">
         <v>43</v>
       </c>
@@ -9695,18 +9685,18 @@
       <c r="L56" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="M56" s="51"/>
+      <c r="M56" s="39"/>
       <c r="N56" s="25" t="s">
+        <v>559</v>
+      </c>
+      <c r="O56" s="26" t="s">
         <v>560</v>
-      </c>
-      <c r="O56" s="26" t="s">
-        <v>561</v>
       </c>
       <c r="P56" s="30">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:16" ht="13.5">
+    <row r="57" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J57" s="5" t="s">
         <v>50</v>
       </c>
@@ -9716,18 +9706,18 @@
       <c r="L57" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="M57" s="51"/>
+      <c r="M57" s="39"/>
       <c r="N57" s="25" t="s">
+        <v>559</v>
+      </c>
+      <c r="O57" s="26" t="s">
         <v>560</v>
-      </c>
-      <c r="O57" s="26" t="s">
-        <v>561</v>
       </c>
       <c r="P57" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:16" ht="13.5">
+    <row r="58" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J58" s="5" t="s">
         <v>57</v>
       </c>
@@ -9737,18 +9727,18 @@
       <c r="L58" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="M58" s="51"/>
+      <c r="M58" s="39"/>
       <c r="N58" s="25" t="s">
+        <v>559</v>
+      </c>
+      <c r="O58" s="26" t="s">
         <v>560</v>
-      </c>
-      <c r="O58" s="26" t="s">
-        <v>561</v>
       </c>
       <c r="P58" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:16" ht="13.5">
+    <row r="59" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J59" s="9" t="s">
         <v>64</v>
       </c>
@@ -9758,29 +9748,19 @@
       <c r="L59" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="M59" s="52"/>
+      <c r="M59" s="40"/>
       <c r="N59" s="27" t="s">
+        <v>559</v>
+      </c>
+      <c r="O59" s="28" t="s">
         <v>560</v>
-      </c>
-      <c r="O59" s="28" t="s">
-        <v>561</v>
       </c>
       <c r="P59" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:16" ht="13.5"/>
-    <row r="61" spans="2:16" ht="13.5"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="M8:M11"/>
-    <mergeCell ref="M52:M59"/>
-    <mergeCell ref="M20:M23"/>
-    <mergeCell ref="M24:M27"/>
-    <mergeCell ref="M28:M31"/>
-    <mergeCell ref="M32:M35"/>
-    <mergeCell ref="M36:M39"/>
-    <mergeCell ref="M40:M43"/>
     <mergeCell ref="E47:E50"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="O2:P2"/>
@@ -9797,6 +9777,14 @@
     <mergeCell ref="E43:E46"/>
     <mergeCell ref="E5:E7"/>
     <mergeCell ref="M4:M7"/>
+    <mergeCell ref="M8:M11"/>
+    <mergeCell ref="M52:M59"/>
+    <mergeCell ref="M20:M23"/>
+    <mergeCell ref="M24:M27"/>
+    <mergeCell ref="M28:M31"/>
+    <mergeCell ref="M32:M35"/>
+    <mergeCell ref="M36:M39"/>
+    <mergeCell ref="M40:M43"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9805,21 +9793,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010067C582840E03B9419F491E99FCFAC6A0" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="91dce3c0b99ef428ce7241bcb3c847df">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d8a70b91-dda9-4b87-9f0e-f0722aa7e253" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="093b512b2916c1453b256d4de3f598c0" ns2:_="">
     <xsd:import namespace="d8a70b91-dda9-4b87-9f0e-f0722aa7e253"/>
@@ -9995,14 +9968,52 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49CA607F-81AE-4F26-9AC7-06804097696E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54531328-BC51-414E-85FB-C54D90FBB085}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d8a70b91-dda9-4b87-9f0e-f0722aa7e253"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B88F27-1D3F-45DB-AC82-BF3761CF2C67}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B88F27-1D3F-45DB-AC82-BF3761CF2C67}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54531328-BC51-414E-85FB-C54D90FBB085}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49CA607F-81AE-4F26-9AC7-06804097696E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>